--- a/template/collegelist.xlsx
+++ b/template/collegelist.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>lax</t>
+  </si>
+  <si>
+    <t>moorthy</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,6 +379,9 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
